--- a/assets/data/ovana-data.xlsx
+++ b/assets/data/ovana-data.xlsx
@@ -8,12 +8,14 @@
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="meetings" sheetId="2" r:id="rId5"/>
     <sheet name="announcements" sheetId="3" r:id="rId6"/>
+    <sheet name="documents" sheetId="4" r:id="rId7"/>
+    <sheet name="document-types" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -333,6 +335,273 @@
       </rPr>
       <t>https://www.502na.org/emergency-meetings</t>
     </r>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>area-minutes</t>
+  </si>
+  <si>
+    <t>September 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-09.pdf</t>
+  </si>
+  <si>
+    <t>August 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-08.pdf</t>
+  </si>
+  <si>
+    <t>July 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-07.pdf</t>
+  </si>
+  <si>
+    <t>June 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-06.pdf</t>
+  </si>
+  <si>
+    <t>May 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-05.pdf</t>
+  </si>
+  <si>
+    <t>April 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-04.pdf</t>
+  </si>
+  <si>
+    <t>March 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-03.pdf</t>
+  </si>
+  <si>
+    <t>February 2021 Area Minutes</t>
+  </si>
+  <si>
+    <t>2021-02.pdf</t>
+  </si>
+  <si>
+    <t>December 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-12.pdf</t>
+  </si>
+  <si>
+    <t>October 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-10.pdf</t>
+  </si>
+  <si>
+    <t>September 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-09.pdf</t>
+  </si>
+  <si>
+    <t>August 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-08.pdf</t>
+  </si>
+  <si>
+    <t>July 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-07.pdf</t>
+  </si>
+  <si>
+    <t>June 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-06.pdf</t>
+  </si>
+  <si>
+    <t>January 2020 Area Minutes</t>
+  </si>
+  <si>
+    <t>2020-01.pdf</t>
+  </si>
+  <si>
+    <t>December 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-12.pdf</t>
+  </si>
+  <si>
+    <t>November 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-11.pdf</t>
+  </si>
+  <si>
+    <t>October 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-10.pdf</t>
+  </si>
+  <si>
+    <t>September 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-09.pdf</t>
+  </si>
+  <si>
+    <t>August 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-08.pdf</t>
+  </si>
+  <si>
+    <t>July 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-07.pdf</t>
+  </si>
+  <si>
+    <t>June 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-06.pdf</t>
+  </si>
+  <si>
+    <t>May 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-05.pdf</t>
+  </si>
+  <si>
+    <t>April 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-04.pdf</t>
+  </si>
+  <si>
+    <t>March 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-03.pdf</t>
+  </si>
+  <si>
+    <t>February 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-02.pdf</t>
+  </si>
+  <si>
+    <t>January 2019 Area Minutes</t>
+  </si>
+  <si>
+    <t>2019-01.pdf</t>
+  </si>
+  <si>
+    <t>December 2018 Area Minutes</t>
+  </si>
+  <si>
+    <t>2018-12.pdf</t>
+  </si>
+  <si>
+    <t>region-documents</t>
+  </si>
+  <si>
+    <t>Region Policies and Procedures</t>
+  </si>
+  <si>
+    <t>region-policies-and-procedures.pdf</t>
+  </si>
+  <si>
+    <t>area-forms</t>
+  </si>
+  <si>
+    <t>Policy and Procedures Manual</t>
+  </si>
+  <si>
+    <t>policies-and-procedures.pdf</t>
+  </si>
+  <si>
+    <t>Home Group Report Template</t>
+  </si>
+  <si>
+    <t>home-group-report.pdf</t>
+  </si>
+  <si>
+    <t>Literature Order Form</t>
+  </si>
+  <si>
+    <t>literature-order-form.pdf</t>
+  </si>
+  <si>
+    <t>OVANA Meeting Schedule</t>
+  </si>
+  <si>
+    <t>meeting-schedule.pdf</t>
+  </si>
+  <si>
+    <t>document-types</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Region Documents</t>
+  </si>
+  <si>
+    <t>assets/documents/region</t>
+  </si>
+  <si>
+    <t>Storage for region documents such as regional policies or regional minutes</t>
+  </si>
+  <si>
+    <t>flyers</t>
+  </si>
+  <si>
+    <t>Flyers</t>
+  </si>
+  <si>
+    <t>assets/documents/flyers</t>
+  </si>
+  <si>
+    <t>Flyers for OVANA events</t>
+  </si>
+  <si>
+    <t>Area Forms</t>
+  </si>
+  <si>
+    <t>assets/documents/area-forms</t>
+  </si>
+  <si>
+    <t>Area forms such as area nominations</t>
+  </si>
+  <si>
+    <t>Area Minutes</t>
+  </si>
+  <si>
+    <t>assets/documents/area-minutes</t>
+  </si>
+  <si>
+    <t>Minutes from monthly area meetings</t>
   </si>
 </sst>
 </file>
@@ -432,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -620,13 +889,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -694,6 +993,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1845,6 +2156,38 @@
         <v>89</v>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>169</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -1852,6 +2195,8 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'meetings'!R1C1" tooltip="" display="meetings"/>
     <hyperlink ref="D12" location="'announcements'!R1C1" tooltip="" display="announcements"/>
+    <hyperlink ref="D14" location="'documents'!R1C1" tooltip="" display="documents"/>
+    <hyperlink ref="D16" location="'document-types'!R1C1" tooltip="" display="document-types"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -2604,4 +2949,503 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="23" customWidth="1"/>
+    <col min="2" max="2" width="34.5391" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="18">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="18">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s" s="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="22">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s" s="22">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s" s="25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="22">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s" s="25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="22">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="22">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s" s="25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s" s="22">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s" s="25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="22">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s" s="22">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s" s="25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" ht="14.05" customHeight="1">
+      <c r="A11" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s" s="22">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s" s="25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" ht="14.05" customHeight="1">
+      <c r="A12" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s" s="22">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s" s="25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" ht="14.05" customHeight="1">
+      <c r="A13" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s" s="22">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s" s="25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" ht="14.05" customHeight="1">
+      <c r="A14" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s" s="22">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s" s="25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" ht="14.05" customHeight="1">
+      <c r="A15" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s" s="22">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s" s="25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" ht="14.05" customHeight="1">
+      <c r="A16" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s" s="22">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" ht="14.05" customHeight="1">
+      <c r="A17" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s" s="22">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" ht="14.05" customHeight="1">
+      <c r="A18" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s" s="22">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s" s="25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" ht="14.05" customHeight="1">
+      <c r="A19" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s" s="22">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s" s="25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" ht="14.05" customHeight="1">
+      <c r="A20" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s" s="22">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s" s="25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" ht="14.05" customHeight="1">
+      <c r="A21" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s" s="22">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s" s="25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" ht="14.05" customHeight="1">
+      <c r="A22" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s" s="22">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s" s="25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" ht="14.05" customHeight="1">
+      <c r="A23" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s" s="22">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s" s="25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" ht="14.05" customHeight="1">
+      <c r="A24" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s" s="22">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s" s="25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" ht="14.05" customHeight="1">
+      <c r="A25" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s" s="22">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s" s="25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" ht="14.05" customHeight="1">
+      <c r="A26" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s" s="22">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s" s="25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" ht="14.05" customHeight="1">
+      <c r="A27" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s" s="22">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s" s="25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" ht="14.05" customHeight="1">
+      <c r="A28" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s" s="22">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s" s="25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" ht="14.05" customHeight="1">
+      <c r="A29" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s" s="22">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s" s="25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" ht="26.05" customHeight="1">
+      <c r="A30" t="s" s="21">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s" s="22">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s" s="25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" ht="26.05" customHeight="1">
+      <c r="A31" t="s" s="21">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s" s="22">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s" s="25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" ht="26.05" customHeight="1">
+      <c r="A32" t="s" s="21">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="22">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s" s="25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" ht="26.05" customHeight="1">
+      <c r="A33" t="s" s="21">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s" s="22">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s" s="25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" ht="26.05" customHeight="1">
+      <c r="A34" t="s" s="21">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s" s="22">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s" s="25">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="2" width="16.3516" style="26" customWidth="1"/>
+    <col min="3" max="4" width="37.0859" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="18">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="18">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s" s="18">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s" s="18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" ht="26.25" customHeight="1">
+      <c r="A2" t="s" s="19">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s" s="20">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s" s="24">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" t="s" s="21">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s" s="22">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" t="s" s="21">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s" s="22">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s" s="25">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s" s="25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="22">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s" s="25">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s" s="25">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>